--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -1,128 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ExerciciosGit\ScriptsExecutaveis\ConsultaDeMetas_v2.0\storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Meta.AC</t>
-  </si>
-  <si>
-    <t>Venda</t>
-  </si>
-  <si>
-    <t>Venda.AC</t>
-  </si>
-  <si>
-    <t>Sobras</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>10/05/2002</t>
-  </si>
-  <si>
-    <t>R$12000.05</t>
-  </si>
-  <si>
-    <t>R$R$1000.64</t>
-  </si>
-  <si>
-    <t>R$1000.64</t>
-  </si>
-  <si>
-    <t>-R$R$-10999.41</t>
-  </si>
-  <si>
-    <t>8.34%%</t>
-  </si>
-  <si>
-    <t>R$R$2001.28</t>
-  </si>
-  <si>
-    <t>R$2001.28</t>
-  </si>
-  <si>
-    <t>-R$R$-21998.82</t>
-  </si>
-  <si>
-    <t>R$R$3001.92</t>
-  </si>
-  <si>
-    <t>R$3001.92</t>
-  </si>
-  <si>
-    <t>-R$R$-32998.23</t>
-  </si>
-  <si>
-    <t>R$R$4002.56</t>
-  </si>
-  <si>
-    <t>R$4002.56</t>
-  </si>
-  <si>
-    <t>-R$R$-43997.64</t>
-  </si>
-  <si>
-    <t>R$R$14003.20</t>
-  </si>
-  <si>
-    <t>R$10000.64</t>
-  </si>
-  <si>
-    <t>R$14003.20</t>
-  </si>
-  <si>
-    <t>-R$R$-45997.05</t>
-  </si>
-  <si>
-    <t>23.34%%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,158 +420,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Meta.AC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Venda</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Venda.AC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sobras</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G2" t="n">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2001.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3001.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,59 +476,34 @@
           <t>07/07/2023</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07/07/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2000.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3000.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2001.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3001.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.03</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
         </is>
       </c>
     </row>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,43 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07/07/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -1,37 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ExerciciosGit\ScriptsExecutaveis\ConsultaDeMetas_v2.0\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Meta.AC</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Venda.AC</t>
+  </si>
+  <si>
+    <t>Sobras</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>08/07/2023</t>
+  </si>
+  <si>
+    <t>05/06/2023</t>
+  </si>
+  <si>
+    <t>10050.00</t>
+  </si>
+  <si>
+    <t>11050.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>10950.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>99.10</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>12050.00</t>
+  </si>
+  <si>
+    <t>11950.00</t>
+  </si>
+  <si>
+    <t>99.17</t>
+  </si>
+  <si>
+    <t>13050.00</t>
+  </si>
+  <si>
+    <t>12950.00</t>
+  </si>
+  <si>
+    <t>99.23</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>15050.00</t>
+  </si>
+  <si>
+    <t>13950.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>92.69</t>
+  </si>
+  <si>
+    <t>17050.00</t>
+  </si>
+  <si>
+    <t>14950.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>87.68</t>
+  </si>
+  <si>
+    <t>19050.00</t>
+  </si>
+  <si>
+    <t>15950.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>83.73</t>
+  </si>
+  <si>
+    <t>20050.00</t>
+  </si>
+  <si>
+    <t>16950.00</t>
+  </si>
+  <si>
+    <t>84.54</t>
+  </si>
+  <si>
+    <t>31/03/2001</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>25050.00</t>
+  </si>
+  <si>
+    <t>21950.00</t>
+  </si>
+  <si>
+    <t>87.62</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +185,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,91 +509,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Meta.AC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Venda</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Venda.AC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sobras</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07/07/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>31/03/2001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3000.00</t>
+          <t>4000.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3000.00</t>
+          <t>4000.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3000.00</t>
+          <t>4000.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3000.00</t>
+          <t>4000.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4000.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4000.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,27 +547,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
+          <t>31/04/2000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>4000.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>4000.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5000.00</t>
+          <t>9000.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>10000.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8000.00</t>
+          <t>12000.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>14000.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -700,22 +700,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11400.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1400.00</t>
+          <t>6000.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11400.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,6 +724,228 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6000.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>26000.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6000.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26000.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30000.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30000.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>34000.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34000.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>38000.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38000.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>42000.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42000.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>46000.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46000.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,266 +473,194 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/03/2001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>00/80/8000</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>31/03/5000</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>233.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31/04/2000</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>40/80/8000</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>214.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>77/77/7777</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7777</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14777</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7777</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22777</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>154.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2000.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2000.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>70/70/8000</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18777</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26777</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>142.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2000.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14000.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2000.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>14000.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22777</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30777</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>135.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31/03/2001</t>
+          <t>31/80/9000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>4575.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>27352.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6000.00</t>
+          <t>9985.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>40762.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13410.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>149.03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31/03/2001</t>
+          <t>10/10/1000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,7 +670,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>33352.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,17 +680,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26000.00</t>
+          <t>46762.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13410.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>140.21</t>
         </is>
       </c>
     </row>
@@ -779,7 +707,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>37352.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,17 +717,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>50762.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13410.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>135.90</t>
         </is>
       </c>
     </row>
@@ -816,7 +744,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>41352.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,54 +754,54 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34000.00</t>
+          <t>54762.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13410.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>132.43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31/03/2001</t>
+          <t>91/11/2000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4000.00</t>
+          <t>1780.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>43132.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4000.00</t>
+          <t>1898.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>38000.00</t>
+          <t>56660.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13528.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>131.36</t>
         </is>
       </c>
     </row>
@@ -890,7 +818,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>42000.00</t>
+          <t>47132.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -900,24 +828,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>42000.00</t>
+          <t>60660.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13528.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>128.70</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31/03/2001</t>
+          <t>00/80/8000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,27 +855,804 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>51132.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4000.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>46000.00</t>
+          <t>68660.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>17528.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>134.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>80/90/4000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8040.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>59172.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77660.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>131.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>63172.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81660.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>129.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>67172.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85660.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>127.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>71172.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89660.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>125.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>75172.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93660.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>124.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>79172.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97660.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>123.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>83172.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>101660.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>122.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>87172.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>105660.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>121.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>91172.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>109660.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>120.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>95172.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>113660.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>119.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>99172.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>117660.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>118.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>103172.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>121660.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>117.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>107172.00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>125660.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>117.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>111172.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>129660.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>115172.00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>133660.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>119172.00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>137660.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>115.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>123172.00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>141660.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>115.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>127172.00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>145660.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>114.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>131172.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>149660.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>114.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>135172.00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>153660.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>18488.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>113.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30/80/8000</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>139172.00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>161660.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>22488.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>116.16</t>
         </is>
       </c>
     </row>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,293 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1080.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11051</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13211.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2160.4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16576.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19817.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3240.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>22102</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26422.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4320.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>27627.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33028.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5401</v>
-      </c>
-      <c r="G6" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33153</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>39634.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6481.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38678.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>46239.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7561.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>44204</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>52845.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8641.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>49729.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>59451.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9721.799999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5525.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55255</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6605.7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>66057</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10802</v>
-      </c>
-      <c r="G11" t="n">
-        <v>119.55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>31/03/2000</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5525.50</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>60780.50</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6605.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>72662.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>11882.20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>119.55</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,193 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3000.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2999.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>199.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9800</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12800.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5699.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>144.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21800.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2300.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>89.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27800.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34500</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6699.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>124.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6700</v>
+      </c>
+      <c r="C6" t="n">
+        <v>34500.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34501.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34500</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34502.40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34500.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -1,37 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ExerciciosGit\ScriptsExecutaveis\ConsultaDeMetas_v2.0\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="8835"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Meta.AC</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Venda.AC</t>
+  </si>
+  <si>
+    <t>Sobras</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>14/07/2023</t>
+  </si>
+  <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>139502.40</t>
+  </si>
+  <si>
+    <t>139500.00</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +98,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,241 +422,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Meta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Meta.AC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Venda</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Venda.AC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sobras</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>3000.6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3000.6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>6000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2999.4</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>199.96</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>9800</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>12800.6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12500</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>18500</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5699.4</v>
       </c>
-      <c r="G3" t="n">
-        <v>144.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="G3">
+        <v>144.52000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>9000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>21800.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>19500</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2300.6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>89.45</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>6000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>27800.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>15000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>34500</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>6699.4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>124.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>6700</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>34500.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>34500</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6</v>
       </c>
-      <c r="G6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>0.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>34501.2</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>34501.199999999997</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>34500</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.2</v>
       </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>34502.40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34500.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>99.99</t>
-        </is>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <v>34502.400000000001</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>34500</v>
+      </c>
+      <c r="F8">
+        <v>2.4</v>
+      </c>
+      <c r="G8">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+      <c r="C9">
+        <v>39502.400000000001</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
+      </c>
+      <c r="E9">
+        <v>39500</v>
+      </c>
+      <c r="F9">
+        <v>2.4</v>
+      </c>
+      <c r="G9">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>44502.400000000001</v>
+      </c>
+      <c r="D10">
+        <v>5000</v>
+      </c>
+      <c r="E10">
+        <v>44500</v>
+      </c>
+      <c r="F10">
+        <v>2.4</v>
+      </c>
+      <c r="G10">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>49502.400000000001</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <v>49500</v>
+      </c>
+      <c r="F11">
+        <v>2.4</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>54502.400000000001</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12">
+        <v>54500</v>
+      </c>
+      <c r="F12">
+        <v>2.4</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13">
+        <v>59502.400000000001</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="E13">
+        <v>59500</v>
+      </c>
+      <c r="F13">
+        <v>2.4</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>64502.400000000001</v>
+      </c>
+      <c r="D14">
+        <v>5000</v>
+      </c>
+      <c r="E14">
+        <v>64500</v>
+      </c>
+      <c r="F14">
+        <v>2.4</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15">
+        <v>69502.399999999994</v>
+      </c>
+      <c r="D15">
+        <v>5000</v>
+      </c>
+      <c r="E15">
+        <v>69500</v>
+      </c>
+      <c r="F15">
+        <v>2.4</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>74502.399999999994</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16">
+        <v>74500</v>
+      </c>
+      <c r="F16">
+        <v>2.4</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>79502.399999999994</v>
+      </c>
+      <c r="D17">
+        <v>5000</v>
+      </c>
+      <c r="E17">
+        <v>79500</v>
+      </c>
+      <c r="F17">
+        <v>2.4</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>84502.399999999994</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+      <c r="E18">
+        <v>84500</v>
+      </c>
+      <c r="F18">
+        <v>2.4</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>89502.399999999994</v>
+      </c>
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19">
+        <v>89500</v>
+      </c>
+      <c r="F19">
+        <v>2.4</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>94502.399999999994</v>
+      </c>
+      <c r="D20">
+        <v>5000</v>
+      </c>
+      <c r="E20">
+        <v>94500</v>
+      </c>
+      <c r="F20">
+        <v>2.4</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>99502.399999999994</v>
+      </c>
+      <c r="D21">
+        <v>5000</v>
+      </c>
+      <c r="E21">
+        <v>99500</v>
+      </c>
+      <c r="F21">
+        <v>2.4</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>104502.39999999999</v>
+      </c>
+      <c r="D22">
+        <v>5000</v>
+      </c>
+      <c r="E22">
+        <v>104500</v>
+      </c>
+      <c r="F22">
+        <v>2.4</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>109502.39999999999</v>
+      </c>
+      <c r="D23">
+        <v>5000</v>
+      </c>
+      <c r="E23">
+        <v>109500</v>
+      </c>
+      <c r="F23">
+        <v>2.4</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>114502.39999999999</v>
+      </c>
+      <c r="D24">
+        <v>5000</v>
+      </c>
+      <c r="E24">
+        <v>114500</v>
+      </c>
+      <c r="F24">
+        <v>2.4</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>119502.39999999999</v>
+      </c>
+      <c r="D25">
+        <v>5000</v>
+      </c>
+      <c r="E25">
+        <v>119500</v>
+      </c>
+      <c r="F25">
+        <v>2.4</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>5000</v>
+      </c>
+      <c r="C26">
+        <v>124502.39999999999</v>
+      </c>
+      <c r="D26">
+        <v>5000</v>
+      </c>
+      <c r="E26">
+        <v>124500</v>
+      </c>
+      <c r="F26">
+        <v>2.4</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>129502.39999999999</v>
+      </c>
+      <c r="D27">
+        <v>5000</v>
+      </c>
+      <c r="E27">
+        <v>129500</v>
+      </c>
+      <c r="F27">
+        <v>2.4</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>5000</v>
+      </c>
+      <c r="C28">
+        <v>134502.39999999999</v>
+      </c>
+      <c r="D28">
+        <v>5000</v>
+      </c>
+      <c r="E28">
+        <v>134500</v>
+      </c>
+      <c r="F28">
+        <v>2.4</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,35 +751,23 @@
           <t>16/07/2023</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>6800.00</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>61302.40</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9804.88</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>64304.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>104.90</t>
-        </is>
+      <c r="B13" t="n">
+        <v>6800</v>
+      </c>
+      <c r="C13" t="n">
+        <v>61302.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9804.879999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>64304.88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G13" t="n">
+        <v>104.9</v>
       </c>
     </row>
     <row r="14">
@@ -788,35 +776,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>66302.40</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69304.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>104.53</t>
-        </is>
+      <c r="B14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66302.39999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>69304.88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>104.53</v>
       </c>
     </row>
     <row r="15">
@@ -825,35 +801,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>71302.40</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>74304.88</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>104.21</t>
-        </is>
+      <c r="B15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>71302.39999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74304.88</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G15" t="n">
+        <v>104.21</v>
       </c>
     </row>
     <row r="16">
@@ -862,35 +826,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>76302.40</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79304.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>103.93</t>
-        </is>
+      <c r="B16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>76302.39999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79304.88</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G16" t="n">
+        <v>103.93</v>
       </c>
     </row>
     <row r="17">
@@ -899,35 +851,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>81302.40</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84304.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>103.69</t>
-        </is>
+      <c r="B17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81302.39999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84304.88</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G17" t="n">
+        <v>103.69</v>
       </c>
     </row>
     <row r="18">
@@ -936,35 +876,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>86302.40</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89304.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>103.48</t>
-        </is>
+      <c r="B18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>86302.39999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89304.88</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G18" t="n">
+        <v>103.48</v>
       </c>
     </row>
     <row r="19">
@@ -973,35 +901,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>91302.40</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94304.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>103.29</t>
-        </is>
+      <c r="B19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>91302.39999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94304.88</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>103.29</v>
       </c>
     </row>
     <row r="20">
@@ -1010,35 +926,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>96302.40</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>99304.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>103.12</t>
-        </is>
+      <c r="B20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>96302.39999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>99304.88</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G20" t="n">
+        <v>103.12</v>
       </c>
     </row>
     <row r="21">
@@ -1047,35 +951,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>101302.40</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>104304.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>102.96</t>
-        </is>
+      <c r="B21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>101302.4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>104304.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G21" t="n">
+        <v>102.96</v>
       </c>
     </row>
     <row r="22">
@@ -1084,35 +976,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>106302.40</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>109304.88</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>102.82</t>
-        </is>
+      <c r="B22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>106302.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>109304.88</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G22" t="n">
+        <v>102.82</v>
       </c>
     </row>
     <row r="23">
@@ -1121,35 +1001,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>111302.40</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>114304.88</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>102.70</t>
-        </is>
+      <c r="B23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>111302.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>114304.88</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G23" t="n">
+        <v>102.7</v>
       </c>
     </row>
     <row r="24">
@@ -1158,35 +1026,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>116302.40</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>119304.88</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>102.58</t>
-        </is>
+      <c r="B24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>116302.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>119304.88</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G24" t="n">
+        <v>102.58</v>
       </c>
     </row>
     <row r="25">
@@ -1195,35 +1051,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>121302.40</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>124304.88</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>102.48</t>
-        </is>
+      <c r="B25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>121302.4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>124304.88</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G25" t="n">
+        <v>102.48</v>
       </c>
     </row>
     <row r="26">
@@ -1232,35 +1076,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>126302.40</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>129304.88</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>102.38</t>
-        </is>
+      <c r="B26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>126302.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>129304.88</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G26" t="n">
+        <v>102.38</v>
       </c>
     </row>
     <row r="27">
@@ -1269,35 +1101,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>131302.40</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>134304.88</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>102.29</t>
-        </is>
+      <c r="B27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>131302.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>134304.88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G27" t="n">
+        <v>102.29</v>
       </c>
     </row>
     <row r="28">
@@ -1306,35 +1126,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>136302.40</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>139304.88</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>102.20</t>
-        </is>
+      <c r="B28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>136302.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>139304.88</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G28" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="29">
@@ -1343,35 +1151,23 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>141302.40</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>144304.88</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3002.48</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>102.12</t>
-        </is>
+      <c r="B29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>141302.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>144304.88</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3002.48</v>
+      </c>
+      <c r="G29" t="n">
+        <v>102.12</v>
       </c>
     </row>
     <row r="30">
@@ -1380,35 +1176,23 @@
           <t>30/08/2001</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>6000.00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>147302.40</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8000.80</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>152305.68</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5003.28</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>103.40</t>
-        </is>
+      <c r="B30" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>147302.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8000.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>152305.68</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5003.28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>103.4</v>
       </c>
     </row>
     <row r="31">
@@ -1417,34 +1201,59 @@
           <t>50/08/2000</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3000.86</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>150303.26</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6580.60</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>158886.28</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8583.02</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>105.71</t>
+      <c r="B31" t="n">
+        <v>3000.86</v>
+      </c>
+      <c r="C31" t="n">
+        <v>150303.26</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6580.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>158886.28</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8583.02</v>
+      </c>
+      <c r="G31" t="n">
+        <v>105.71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30/08/5200</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>35600.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>185903.26</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>64641.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>223527.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>37624.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>120.24</t>
         </is>
       </c>
     </row>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -548,26 +548,38 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27800.6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34500</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6699.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>124.1</v>
+          <t>31/08/0800</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6800.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28600.60</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -576,23 +588,35 @@
           <t>14/07/2023</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>6700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34500.6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34500</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>100</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6700.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>35300.60</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6800.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -601,23 +625,35 @@
           <t>14/07/2023</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34501.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>34500</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>35301.20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6801.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -626,23 +662,35 @@
           <t>14/07/2023</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34502.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>34500</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.98999999999999</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>35302.40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28500.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6802.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -651,23 +699,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>39502.4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>39500</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>99.98999999999999</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40302.40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33500.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6802.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -676,23 +736,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44502.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>44500</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99.98999999999999</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>45302.40</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38500.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6802.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -701,23 +773,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>49502.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>49500</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>50302.40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43500.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6802.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -726,23 +810,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C12" t="n">
-        <v>54502.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>54500</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>55302.40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48500.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6802.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -751,23 +847,35 @@
           <t>16/07/2023</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>6800</v>
-      </c>
-      <c r="C13" t="n">
-        <v>61302.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9804.879999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>64304.88</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G13" t="n">
-        <v>104.9</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6800.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>62102.40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9804.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58304.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -776,23 +884,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C14" t="n">
-        <v>66302.39999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E14" t="n">
-        <v>69304.88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G14" t="n">
-        <v>104.53</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>67102.40</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63304.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -801,23 +921,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C15" t="n">
-        <v>71302.39999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>74304.88</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G15" t="n">
-        <v>104.21</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>72102.40</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68304.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -826,23 +958,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>76302.39999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>79304.88</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G16" t="n">
-        <v>103.93</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>77102.40</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73304.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -851,23 +995,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>81302.39999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>84304.88</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G17" t="n">
-        <v>103.69</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>82102.40</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78304.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -876,23 +1032,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>86302.39999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>89304.88</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G18" t="n">
-        <v>103.48</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>87102.40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83304.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -901,23 +1069,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>91302.39999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>94304.88</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G19" t="n">
-        <v>103.29</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>92102.40</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88304.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -926,23 +1106,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>96302.39999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>99304.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G20" t="n">
-        <v>103.12</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>97102.40</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93304.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -951,23 +1143,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>101302.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>104304.88</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G21" t="n">
-        <v>102.96</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>102102.40</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98304.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -976,23 +1180,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>106302.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>109304.88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G22" t="n">
-        <v>102.82</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>107102.40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>103304.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1001,23 +1217,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>111302.4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>114304.88</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G23" t="n">
-        <v>102.7</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>112102.40</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>108304.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1026,23 +1254,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C24" t="n">
-        <v>116302.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E24" t="n">
-        <v>119304.88</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G24" t="n">
-        <v>102.58</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>117102.40</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>113304.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1051,23 +1291,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C25" t="n">
-        <v>121302.4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E25" t="n">
-        <v>124304.88</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G25" t="n">
-        <v>102.48</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>122102.40</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>118304.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1076,23 +1328,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C26" t="n">
-        <v>126302.4</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E26" t="n">
-        <v>129304.88</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G26" t="n">
-        <v>102.38</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>127102.40</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>123304.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>97.01</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1101,23 +1365,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C27" t="n">
-        <v>131302.4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E27" t="n">
-        <v>134304.88</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G27" t="n">
-        <v>102.29</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>132102.40</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>128304.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1126,23 +1402,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C28" t="n">
-        <v>136302.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E28" t="n">
-        <v>139304.88</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G28" t="n">
-        <v>102.2</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>137102.40</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>133304.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1151,23 +1439,35 @@
           <t>15/07/2023</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C29" t="n">
-        <v>141302.4</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>144304.88</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3002.48</v>
-      </c>
-      <c r="G29" t="n">
-        <v>102.12</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>142102.40</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>138304.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3797.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1176,23 +1476,35 @@
           <t>30/08/2001</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C30" t="n">
-        <v>147302.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8000.8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>152305.68</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5003.28</v>
-      </c>
-      <c r="G30" t="n">
-        <v>103.4</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6000.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>148102.40</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8000.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>146305.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1796.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1201,23 +1513,35 @@
           <t>50/08/2000</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>3000.86</v>
-      </c>
-      <c r="C31" t="n">
-        <v>150303.26</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6580.6</v>
-      </c>
-      <c r="E31" t="n">
-        <v>158886.28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>8583.02</v>
-      </c>
-      <c r="G31" t="n">
-        <v>105.71</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3000.86</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>151103.26</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6580.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>152886.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1783.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>101.18</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1233,7 +1557,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>185903.26</t>
+          <t>186703.26</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1243,17 +1567,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>223527.28</t>
+          <t>217527.28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>37624.02</t>
+          <t>30824.02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120.24</t>
+          <t>116.51</t>
         </is>
       </c>
     </row>

--- a/storage/listaRDMARCAS.xlsx
+++ b/storage/listaRDMARCAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31/03/2001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
